--- a/biology/Mycologie/Inocybe_patouillardii/Inocybe_patouillardii.xlsx
+++ b/biology/Mycologie/Inocybe_patouillardii/Inocybe_patouillardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inocybe erubescens (aussi décrit sous le nom d'Inocybe patouillardii), appelé Inocybe de Patouillard est une espèce de champignons basidiomycètes du genre Inocybe extrêmement toxique contenant de la muscarine.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inocybe erubescens est décrit d'abord en 1904 par Axel Gudbrand Blytt (publication en 1905) et indépendamment en 1905 par le mycologue italien Giacopo Bresàdola sous le nom d'Inocybe patouillardii.
 </t>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son chapeau, de 3 à 7 cm, est conique et campanulé, mamelonné, à marge irrégulière souvent fendillée, radialement fibrilleux, de couleur allant du blanc au jaune paille voire au brun vermillon.  Ses lames sont libres et serrées, de couleur d'abord blanche puis devenant ocre, se tachant de rouge vermillon. Il n'a pas d'anneau. Son pied est cylindrique et strié, généralement profondément enterré, blanc, se tachant également de rouge vermillon. 
 </t>
